--- a/Experiments/221101/output.xlsx
+++ b/Experiments/221101/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/221101/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0312C2-5E52-864D-82B6-CB6482BEEEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C4C47-8514-B940-A033-8BE65F236C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16200" xr2:uid="{574F1407-A866-F04B-BD18-F7C13C9B6235}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>pyc</t>
   </si>
@@ -46,19 +46,28 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Rep1</t>
-  </si>
-  <si>
-    <t>Rep2</t>
-  </si>
-  <si>
-    <t>Rep3</t>
-  </si>
-  <si>
     <t>Temp1</t>
   </si>
   <si>
     <t>Temp2</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
   </si>
 </sst>
 </file>
@@ -410,35 +419,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5D3973-3672-0A44-83CB-1D86CA7E912C}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C7"/>
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,8 +478,17 @@
       <c r="G2">
         <v>1132220</v>
       </c>
+      <c r="H2">
+        <v>92898.41</v>
+      </c>
+      <c r="I2">
+        <v>30876.5</v>
+      </c>
+      <c r="J2">
+        <v>104043.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,8 +510,17 @@
       <c r="G3">
         <v>621225</v>
       </c>
+      <c r="H3">
+        <v>66242.460000000006</v>
+      </c>
+      <c r="I3">
+        <v>26786.68</v>
+      </c>
+      <c r="J3">
+        <v>150171.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -506,8 +542,17 @@
       <c r="G4">
         <v>674134</v>
       </c>
+      <c r="H4">
+        <v>21272.85</v>
+      </c>
+      <c r="I4">
+        <v>57799.59</v>
+      </c>
+      <c r="J4">
+        <v>15152.71</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -529,8 +574,17 @@
       <c r="G5">
         <v>451054.9</v>
       </c>
+      <c r="H5">
+        <v>50520.41</v>
+      </c>
+      <c r="I5">
+        <v>111629.2</v>
+      </c>
+      <c r="J5">
+        <v>127351.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -552,8 +606,11 @@
       <c r="G6">
         <v>336026.3</v>
       </c>
+      <c r="I6">
+        <v>2865.24</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -574,6 +631,15 @@
       </c>
       <c r="G7">
         <v>299305.90000000002</v>
+      </c>
+      <c r="H7">
+        <v>5708.62</v>
+      </c>
+      <c r="I7">
+        <v>4763.25</v>
+      </c>
+      <c r="J7">
+        <v>11885.46</v>
       </c>
     </row>
   </sheetData>
